--- a/health-analytics-data.xlsx
+++ b/health-analytics-data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshiggins\Documents\health-analytics-prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63DAEE8-9863-46D4-9517-7A97815E8E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1877BF-A10D-496F-92BA-03DE0F12910D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="37245" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="37245" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="drug_need" sheetId="1" r:id="rId1"/>
     <sheet name="target_pop" sheetId="2" r:id="rId2"/>
+    <sheet name="regions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
   <si>
     <t>N'Zerekore</t>
   </si>
@@ -1633,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57EF6DA-12C2-49F1-93E4-2E5A440BBD15}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,4 +2365,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E81A90-441C-4B80-8CFB-B0E65A4BD4E2}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/health-analytics-data.xlsx
+++ b/health-analytics-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshiggins\Documents\health-analytics-prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EBB6AF-F5EE-4952-9871-A839BF0FF1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225FE1BD-3E13-48D2-9E02-6EAD4D946A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="37245" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8745" yWindow="1185" windowWidth="27750" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="115">
   <si>
     <t>N'Zerekore</t>
   </si>
@@ -380,6 +380,9 @@
   <si>
     <t>0% (non-endemic)</t>
   </si>
+  <si>
+    <t>All</t>
+  </si>
 </sst>
 </file>
 
@@ -704,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E81A90-441C-4B80-8CFB-B0E65A4BD4E2}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,41 +722,46 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -767,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2B7D6-4598-437A-AA79-BF68E3008022}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -9481,732 +9489,1211 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57EF6DA-12C2-49F1-93E4-2E5A440BBD15}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B38"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>320583.2</v>
+      </c>
+      <c r="D2">
+        <v>320583.19999999902</v>
+      </c>
+      <c r="E2">
+        <v>112204.12</v>
       </c>
       <c r="F2">
-        <v>154757.12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+        <v>208379.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>320583.2</v>
+      </c>
+      <c r="D3">
+        <v>320583.19999999902</v>
+      </c>
+      <c r="E3">
+        <v>112204.12</v>
       </c>
       <c r="F3">
-        <v>33262.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
+        <v>208379.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>114</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4">
-        <v>190313.60000000001</v>
-      </c>
       <c r="E4">
-        <v>190313.59999999899</v>
-      </c>
-      <c r="F4">
-        <v>66609.759999999995</v>
-      </c>
-      <c r="G4">
-        <v>123703.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
+        <v>154757.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>154757.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6">
+        <v>90651.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7">
+        <v>90651.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>178072.8</v>
+      </c>
+      <c r="D8">
+        <v>178072.8</v>
+      </c>
+      <c r="E8">
+        <v>62325.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>178072.8</v>
+      </c>
+      <c r="D9">
+        <v>178072.8</v>
+      </c>
+      <c r="E9">
+        <v>62325.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>131341.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>131341.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12">
+        <v>193081.60000000001</v>
+      </c>
+      <c r="D12">
+        <v>193081.59999999899</v>
+      </c>
+      <c r="E12">
+        <v>67578.559999999998</v>
+      </c>
+      <c r="F12">
+        <v>125503.03999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <v>193081.60000000001</v>
+      </c>
+      <c r="D13">
+        <v>193081.59999999899</v>
+      </c>
+      <c r="E13">
+        <v>67578.559999999998</v>
+      </c>
+      <c r="F13">
+        <v>125503.03999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16">
+        <v>113527.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <v>113527.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>275417.59999999998</v>
+      </c>
+      <c r="D18">
+        <v>275417.59999999998</v>
+      </c>
+      <c r="E18">
+        <v>96396.160000000003</v>
+      </c>
+      <c r="F18">
+        <v>179021.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>275417.59999999998</v>
+      </c>
+      <c r="D19">
+        <v>275417.59999999998</v>
+      </c>
+      <c r="E19">
+        <v>96396.160000000003</v>
+      </c>
+      <c r="F19">
+        <v>179021.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20">
+        <v>238611.20000000001</v>
+      </c>
+      <c r="D20">
+        <v>238611.20000000001</v>
+      </c>
+      <c r="E20">
+        <v>83513.919999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21">
+        <v>238611.20000000001</v>
+      </c>
+      <c r="D21">
+        <v>238611.20000000001</v>
+      </c>
+      <c r="E21">
+        <v>83513.919999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22">
+        <v>33262.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23">
+        <v>33262.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24">
+        <v>190313.60000000001</v>
+      </c>
+      <c r="D24">
+        <v>190313.59999999899</v>
+      </c>
+      <c r="E24">
+        <v>66609.759999999995</v>
+      </c>
+      <c r="F24">
+        <v>123703.84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25">
+        <v>190313.60000000001</v>
+      </c>
+      <c r="D25">
+        <v>190313.59999999899</v>
+      </c>
+      <c r="E25">
+        <v>66609.759999999995</v>
+      </c>
+      <c r="F25">
+        <v>123703.84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>285520</v>
+      </c>
+      <c r="E26">
+        <v>99932</v>
+      </c>
+      <c r="F26">
+        <v>185588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>285520</v>
+      </c>
+      <c r="E27">
+        <v>99932</v>
+      </c>
+      <c r="F27">
+        <v>185588</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>463598.4</v>
+      </c>
+      <c r="D30">
+        <v>463598.4</v>
+      </c>
+      <c r="E30">
+        <v>162259.44</v>
+      </c>
+      <c r="F30">
+        <v>301338.96000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>463598.4</v>
+      </c>
+      <c r="D31">
+        <v>463598.4</v>
+      </c>
+      <c r="E31">
+        <v>162259.44</v>
+      </c>
+      <c r="F31">
+        <v>301338.96000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
+        <v>204036</v>
+      </c>
+      <c r="D32">
+        <v>204036</v>
+      </c>
+      <c r="E32">
+        <v>71412.600000000006</v>
+      </c>
+      <c r="F32">
+        <v>132623.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33">
+        <v>204036</v>
+      </c>
+      <c r="D33">
+        <v>204036</v>
+      </c>
+      <c r="E33">
+        <v>71412.600000000006</v>
+      </c>
+      <c r="F33">
+        <v>132623.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>431536</v>
+      </c>
+      <c r="D34">
+        <v>431536</v>
+      </c>
+      <c r="E34">
+        <v>151037.6</v>
+      </c>
+      <c r="F34">
+        <v>280498.40000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>431536</v>
+      </c>
+      <c r="D35">
+        <v>431536</v>
+      </c>
+      <c r="E35">
+        <v>151037.6</v>
+      </c>
+      <c r="F35">
+        <v>280498.40000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36">
+        <v>278477.59999999998</v>
+      </c>
+      <c r="D36">
+        <v>278477.59999999998</v>
+      </c>
+      <c r="E36">
+        <v>97467.16</v>
+      </c>
+      <c r="F36">
+        <v>181010.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37">
+        <v>278477.59999999998</v>
+      </c>
+      <c r="D37">
+        <v>278477.59999999998</v>
+      </c>
+      <c r="E37">
+        <v>97467.16</v>
+      </c>
+      <c r="F37">
+        <v>181010.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>98081.600000000006</v>
+      </c>
+      <c r="E38">
+        <v>34328.559999999998</v>
+      </c>
+      <c r="F38">
+        <v>63753.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39">
+        <v>98081.600000000006</v>
+      </c>
+      <c r="E39">
+        <v>34328.559999999998</v>
+      </c>
+      <c r="F39">
+        <v>63753.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
         <v>80</v>
       </c>
-      <c r="D5">
+      <c r="C40">
         <v>127681.60000000001</v>
       </c>
-      <c r="E5">
+      <c r="D40">
         <v>127681.599999999</v>
       </c>
-      <c r="F5">
+      <c r="E40">
         <v>44688.56</v>
       </c>
-      <c r="G5">
+      <c r="F40">
         <v>82993.039999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41">
+        <v>127681.60000000001</v>
+      </c>
+      <c r="D41">
+        <v>127681.599999999</v>
+      </c>
+      <c r="E41">
+        <v>44688.56</v>
+      </c>
+      <c r="F41">
+        <v>82993.039999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42">
+        <v>263871.2</v>
+      </c>
+      <c r="D42">
+        <v>263871.2</v>
+      </c>
+      <c r="E42">
+        <v>92354.92</v>
+      </c>
+      <c r="F42">
+        <v>171516.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43">
+        <v>263871.2</v>
+      </c>
+      <c r="D43">
+        <v>263871.2</v>
+      </c>
+      <c r="E43">
+        <v>92354.92</v>
+      </c>
+      <c r="F43">
+        <v>171516.28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>109339.44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>109339.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46">
+        <v>160133.6</v>
+      </c>
+      <c r="D46">
+        <v>160133.6</v>
+      </c>
+      <c r="E46">
+        <v>56046.76</v>
+      </c>
+      <c r="F46">
+        <v>104086.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>160133.6</v>
+      </c>
+      <c r="D47">
+        <v>160133.6</v>
+      </c>
+      <c r="E47">
+        <v>56046.76</v>
+      </c>
+      <c r="F47">
+        <v>104086.84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>168666.4</v>
+      </c>
+      <c r="E48">
+        <v>59033.24</v>
+      </c>
+      <c r="F48">
+        <v>109633.16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49">
+        <v>168666.4</v>
+      </c>
+      <c r="E49">
+        <v>59033.24</v>
+      </c>
+      <c r="F49">
+        <v>109633.16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>273732</v>
+      </c>
+      <c r="D50">
+        <v>273732</v>
+      </c>
+      <c r="E50">
+        <v>95806.2</v>
+      </c>
+      <c r="F50">
+        <v>177925.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <v>273732</v>
+      </c>
+      <c r="D51">
+        <v>273732</v>
+      </c>
+      <c r="E51">
+        <v>95806.2</v>
+      </c>
+      <c r="F51">
+        <v>177925.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>282716</v>
+      </c>
+      <c r="D52">
+        <v>282716</v>
+      </c>
+      <c r="E52">
+        <v>98950.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53">
+        <v>282716</v>
+      </c>
+      <c r="D53">
+        <v>282716</v>
+      </c>
+      <c r="E53">
+        <v>98950.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>313421.59999999998</v>
+      </c>
+      <c r="D54">
+        <v>313421.59999999998</v>
+      </c>
+      <c r="E54">
+        <v>109697.56</v>
+      </c>
+      <c r="F54">
+        <v>203724.04</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>313421.59999999998</v>
+      </c>
+      <c r="D55">
+        <v>313421.59999999998</v>
+      </c>
+      <c r="E55">
+        <v>109697.56</v>
+      </c>
+      <c r="F55">
+        <v>203724.04</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>330273.59999999998</v>
+      </c>
+      <c r="D56">
+        <v>330273.59999999998</v>
+      </c>
+      <c r="E56">
+        <v>115595.76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57">
+        <v>330273.59999999998</v>
+      </c>
+      <c r="D57">
+        <v>330273.59999999998</v>
+      </c>
+      <c r="E57">
+        <v>115595.76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60">
+        <v>229135.2</v>
+      </c>
+      <c r="F60">
+        <v>425536.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61">
+        <v>229135.2</v>
+      </c>
+      <c r="F61">
+        <v>425536.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>389714.4</v>
+      </c>
+      <c r="E62">
+        <v>136400.04</v>
+      </c>
+      <c r="F62">
+        <v>253314.36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>389714.4</v>
+      </c>
+      <c r="E63">
+        <v>136400.04</v>
+      </c>
+      <c r="F63">
+        <v>253314.36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64">
+        <v>273250.40000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65">
+        <v>273250.40000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66">
+        <v>224489.44</v>
+      </c>
+      <c r="F66">
+        <v>416908.96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9">
-        <v>229135.2</v>
-      </c>
-      <c r="G9">
-        <v>425536.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B67" t="s">
         <v>75</v>
       </c>
-      <c r="F10">
+      <c r="E67">
         <v>224489.44</v>
       </c>
-      <c r="G10">
+      <c r="F67">
         <v>416908.96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11">
-        <v>178072.8</v>
-      </c>
-      <c r="E11">
-        <v>178072.8</v>
-      </c>
-      <c r="F11">
-        <v>62325.48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12">
-        <v>193081.60000000001</v>
-      </c>
-      <c r="E12">
-        <v>193081.59999999899</v>
-      </c>
-      <c r="F12">
-        <v>67578.559999999998</v>
-      </c>
-      <c r="G12">
-        <v>125503.03999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>666113.6</v>
+      </c>
+      <c r="D68">
+        <v>666113.6</v>
+      </c>
+      <c r="E68">
+        <v>233139.76</v>
+      </c>
+      <c r="F68">
+        <v>432973.84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>666113.6</v>
+      </c>
+      <c r="D69">
+        <v>666113.6</v>
+      </c>
+      <c r="E69">
+        <v>233139.76</v>
+      </c>
+      <c r="F69">
+        <v>432973.84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70">
+        <v>279506.40000000002</v>
+      </c>
+      <c r="E70">
+        <v>97827.24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71">
+        <v>279506.40000000002</v>
+      </c>
+      <c r="E71">
+        <v>97827.24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72">
+        <v>122183.2</v>
+      </c>
+      <c r="D72">
+        <v>122183.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>275417.59999999998</v>
-      </c>
-      <c r="E13">
-        <v>275417.59999999998</v>
-      </c>
-      <c r="F13">
-        <v>96396.160000000003</v>
-      </c>
-      <c r="G13">
-        <v>179021.44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14">
-        <v>278477.59999999998</v>
-      </c>
-      <c r="E14">
-        <v>278477.59999999998</v>
-      </c>
-      <c r="F14">
-        <v>97467.16</v>
-      </c>
-      <c r="G14">
-        <v>181010.44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15">
-        <v>463598.4</v>
-      </c>
-      <c r="E15">
-        <v>463598.4</v>
-      </c>
-      <c r="F15">
-        <v>162259.44</v>
-      </c>
-      <c r="G15">
-        <v>301338.96000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16">
-        <v>204036</v>
-      </c>
-      <c r="E16">
-        <v>204036</v>
-      </c>
-      <c r="F16">
-        <v>71412.600000000006</v>
-      </c>
-      <c r="G16">
-        <v>132623.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17">
-        <v>263871.2</v>
-      </c>
-      <c r="E17">
-        <v>263871.2</v>
-      </c>
-      <c r="F17">
-        <v>92354.92</v>
-      </c>
-      <c r="G17">
-        <v>171516.28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18">
-        <v>330273.59999999998</v>
-      </c>
-      <c r="E18">
-        <v>330273.59999999998</v>
-      </c>
-      <c r="F18">
-        <v>115595.76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19">
-        <v>666113.6</v>
-      </c>
-      <c r="E19">
-        <v>666113.6</v>
-      </c>
-      <c r="F19">
-        <v>233139.76</v>
-      </c>
-      <c r="G19">
-        <v>432973.84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20">
-        <v>90651.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21">
-        <v>113527.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22">
-        <v>238611.20000000001</v>
-      </c>
-      <c r="E22">
-        <v>238611.20000000001</v>
-      </c>
-      <c r="F22">
-        <v>83513.919999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23">
-        <v>431536</v>
-      </c>
-      <c r="E23">
-        <v>431536</v>
-      </c>
-      <c r="F23">
-        <v>151037.6</v>
-      </c>
-      <c r="G23">
-        <v>280498.40000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24">
-        <v>279506.40000000002</v>
-      </c>
-      <c r="F24">
-        <v>97827.24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25">
-        <v>98081.600000000006</v>
-      </c>
-      <c r="F25">
-        <v>34328.559999999998</v>
-      </c>
-      <c r="G25">
-        <v>63753.04</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26">
-        <v>109339.44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27">
-        <v>160133.6</v>
-      </c>
-      <c r="E27">
-        <v>160133.6</v>
-      </c>
-      <c r="F27">
-        <v>56046.76</v>
-      </c>
-      <c r="G27">
-        <v>104086.84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28">
-        <v>282716</v>
-      </c>
-      <c r="E28">
-        <v>282716</v>
-      </c>
-      <c r="F28">
-        <v>98950.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B73" t="s">
         <v>60</v>
       </c>
-      <c r="D29">
+      <c r="C73">
         <v>122183.2</v>
       </c>
-      <c r="E29">
+      <c r="D73">
         <v>122183.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30">
-        <v>131341.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>313421.59999999998</v>
-      </c>
-      <c r="E31">
-        <v>313421.59999999998</v>
-      </c>
-      <c r="F31">
-        <v>109697.56</v>
-      </c>
-      <c r="G31">
-        <v>203724.04</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32">
-        <v>273250.40000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33">
-        <v>320583.2</v>
-      </c>
-      <c r="E33">
-        <v>320583.19999999902</v>
-      </c>
-      <c r="F33">
-        <v>112204.12</v>
-      </c>
-      <c r="G33">
-        <v>208379.08</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34">
-        <v>285520</v>
-      </c>
-      <c r="F34">
-        <v>99932</v>
-      </c>
-      <c r="G34">
-        <v>185588</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35">
-        <v>168666.4</v>
-      </c>
-      <c r="F35">
-        <v>59033.24</v>
-      </c>
-      <c r="G35">
-        <v>109633.16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36">
-        <v>273732</v>
-      </c>
-      <c r="E36">
-        <v>273732</v>
-      </c>
-      <c r="F36">
-        <v>95806.2</v>
-      </c>
-      <c r="G36">
-        <v>177925.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>389714.4</v>
-      </c>
-      <c r="F37">
-        <v>136400.04</v>
-      </c>
-      <c r="G37">
-        <v>253314.36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" t="s">
         <v>53</v>
       </c>
-      <c r="E38">
+      <c r="D74">
         <v>112365.6</v>
       </c>
-      <c r="F38">
+      <c r="E74">
         <v>39327.96</v>
       </c>
-      <c r="G38">
+      <c r="F74">
+        <v>73037.64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75">
+        <v>112365.6</v>
+      </c>
+      <c r="E75">
+        <v>39327.96</v>
+      </c>
+      <c r="F75">
         <v>73037.64</v>
       </c>
     </row>

--- a/health-analytics-data.xlsx
+++ b/health-analytics-data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshiggins\Documents\health-analytics-prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225FE1BD-3E13-48D2-9E02-6EAD4D946A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E36C91-CC15-472D-BCE5-1211FC34ACE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="1185" windowWidth="27750" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9075" yWindow="1530" windowWidth="27765" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="3" r:id="rId1"/>
     <sheet name="disease_burden" sheetId="4" r:id="rId2"/>
     <sheet name="target_pop" sheetId="2" r:id="rId3"/>
     <sheet name="drug_need" sheetId="1" r:id="rId4"/>
+    <sheet name="geo_data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="117">
   <si>
     <t>N'Zerekore</t>
   </si>
@@ -383,6 +384,12 @@
   <si>
     <t>All</t>
   </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
 </sst>
 </file>
 
@@ -709,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E81A90-441C-4B80-8CFB-B0E65A4BD4E2}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11728,4 +11735,797 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51378AB9-4B68-4E90-B4F5-9BE7AB5E618A}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2">
+        <v>11.3406898</v>
+      </c>
+      <c r="E2">
+        <v>-13.9440724</v>
+      </c>
+      <c r="F2">
+        <v>273614.92059450998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>11.3406898</v>
+      </c>
+      <c r="E3">
+        <v>-13.9440724</v>
+      </c>
+      <c r="F3">
+        <v>579229.22064564505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>11.3406898</v>
+      </c>
+      <c r="E4">
+        <v>-13.9440724</v>
+      </c>
+      <c r="F4">
+        <v>124496.177459543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5">
+        <v>11.3406898</v>
+      </c>
+      <c r="E5">
+        <v>-13.9440724</v>
+      </c>
+      <c r="F5">
+        <v>249308.84842127701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>11.3406898</v>
+      </c>
+      <c r="E6">
+        <v>-13.9440724</v>
+      </c>
+      <c r="F6">
+        <v>167261.57594930701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7">
+        <v>9.5170601999999995</v>
+      </c>
+      <c r="E7">
+        <v>-13.699843400000001</v>
+      </c>
+      <c r="F7">
+        <v>174841.70012595499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>9.5170601999999995</v>
+      </c>
+      <c r="E8">
+        <v>-13.699843400000001</v>
+      </c>
+      <c r="F8">
+        <v>80437.5571760577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>9.5170601999999995</v>
+      </c>
+      <c r="E9">
+        <v>-13.699843400000001</v>
+      </c>
+      <c r="F9">
+        <v>184495.79993451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>9.5170601999999995</v>
+      </c>
+      <c r="E10">
+        <v>-13.699843400000001</v>
+      </c>
+      <c r="F10">
+        <v>857613.55159933097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>9.5170601999999995</v>
+      </c>
+      <c r="E11">
+        <v>-13.699843400000001</v>
+      </c>
+      <c r="F11">
+        <v>840225.27282994904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <v>10.3143203</v>
+      </c>
+      <c r="E12">
+        <v>-10.890097000000001</v>
+      </c>
+      <c r="F12">
+        <v>233273.52697417501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13">
+        <v>10.3143203</v>
+      </c>
+      <c r="E13">
+        <v>-10.890097000000001</v>
+      </c>
+      <c r="F13">
+        <v>252934.89980399501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>10.3143203</v>
+      </c>
+      <c r="E14">
+        <v>-10.890097000000001</v>
+      </c>
+      <c r="F14">
+        <v>360794.20856392803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <v>10.3143203</v>
+      </c>
+      <c r="E15">
+        <v>-10.890097000000001</v>
+      </c>
+      <c r="F15">
+        <v>364802.77692777099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>10.6248355</v>
+      </c>
+      <c r="E16">
+        <v>-9.3175165999999994</v>
+      </c>
+      <c r="F16">
+        <v>607309.11103539995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17">
+        <v>10.6248355</v>
+      </c>
+      <c r="E17">
+        <v>-9.3175165999999994</v>
+      </c>
+      <c r="F17">
+        <v>267285.05055068899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <v>10.6248355</v>
+      </c>
+      <c r="E18">
+        <v>-9.3175165999999994</v>
+      </c>
+      <c r="F18">
+        <v>345668.543937693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19">
+        <v>10.6248355</v>
+      </c>
+      <c r="E19">
+        <v>-9.3175165999999994</v>
+      </c>
+      <c r="F19">
+        <v>432655.001428955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20">
+        <v>10.6248355</v>
+      </c>
+      <c r="E20">
+        <v>-9.3175165999999994</v>
+      </c>
+      <c r="F20">
+        <v>872601.929309053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21">
+        <v>10.115437399999999</v>
+      </c>
+      <c r="E21">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="F21">
+        <v>339292.56225779199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>10.115437399999999</v>
+      </c>
+      <c r="E22">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="F22">
+        <v>424913.486526024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>10.115437399999999</v>
+      </c>
+      <c r="E23">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="F23">
+        <v>312578.20509106602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>10.115437399999999</v>
+      </c>
+      <c r="E24">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="F24">
+        <v>565307.69851615594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>10.115437399999999</v>
+      </c>
+      <c r="E25">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="F25">
+        <v>366150.49429140601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>11.761483500000001</v>
+      </c>
+      <c r="E26">
+        <v>-12.011888900000001</v>
+      </c>
+      <c r="F26">
+        <v>128485.881972262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>11.761483500000001</v>
+      </c>
+      <c r="E27">
+        <v>-12.011888900000001</v>
+      </c>
+      <c r="F27">
+        <v>409238.674233736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>11.761483500000001</v>
+      </c>
+      <c r="E28">
+        <v>-12.011888900000001</v>
+      </c>
+      <c r="F28">
+        <v>209773.360440627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29">
+        <v>11.761483500000001</v>
+      </c>
+      <c r="E29">
+        <v>-12.011888900000001</v>
+      </c>
+      <c r="F29">
+        <v>370355.03710859199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>11.761483500000001</v>
+      </c>
+      <c r="E30">
+        <v>-12.011888900000001</v>
+      </c>
+      <c r="F30">
+        <v>160058.728795139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31">
+        <v>10.661926899999999</v>
+      </c>
+      <c r="E31">
+        <v>-12.1139542</v>
+      </c>
+      <c r="F31">
+        <v>172056.138109983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>10.661926899999999</v>
+      </c>
+      <c r="E32">
+        <v>-12.1139542</v>
+      </c>
+      <c r="F32">
+        <v>410579.05565526697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33">
+        <v>10.661926899999999</v>
+      </c>
+      <c r="E33">
+        <v>-12.1139542</v>
+      </c>
+      <c r="F33">
+        <v>357955.19896977098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34">
+        <v>7.7589949000000002</v>
+      </c>
+      <c r="E34">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="F34">
+        <v>419960.677614254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35">
+        <v>7.7589949000000002</v>
+      </c>
+      <c r="E35">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="F35">
+        <v>374028.24811912101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36">
+        <v>7.7589949000000002</v>
+      </c>
+      <c r="E36">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="F36">
+        <v>220951.24022330801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37">
+        <v>7.7589949000000002</v>
+      </c>
+      <c r="E37">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="F37">
+        <v>358586.08999069501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>7.7589949000000002</v>
+      </c>
+      <c r="E38">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="F38">
+        <v>510521.83489350701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39">
+        <v>7.7589949000000002</v>
+      </c>
+      <c r="E39">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="F39">
+        <v>147197.77429550901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/health-analytics-data.xlsx
+++ b/health-analytics-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshiggins\Documents\health-analytics-prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E36C91-CC15-472D-BCE5-1211FC34ACE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E084A6-D2EE-44EE-B194-B2AECAD884EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9075" yWindow="1530" windowWidth="27765" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="118">
   <si>
     <t>N'Zerekore</t>
   </si>
@@ -390,6 +390,9 @@
   <si>
     <t>Longitude</t>
   </si>
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
 </sst>
 </file>
 
@@ -11739,788 +11742,1779 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51378AB9-4B68-4E90-B4F5-9BE7AB5E618A}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F39"/>
+      <selection sqref="A1:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2">
-        <v>11.3406898</v>
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
       </c>
       <c r="E2">
-        <v>-13.9440724</v>
+        <v>7.7589949000000002</v>
       </c>
       <c r="F2">
-        <v>273614.92059450998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="G2">
+        <v>419960.677614254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3">
         <v>11.3406898</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-13.9440724</v>
       </c>
-      <c r="F3">
-        <v>579229.22064564505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>273614.92059450998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
         <v>11.3406898</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-13.9440724</v>
       </c>
-      <c r="F4">
-        <v>124496.177459543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>579229.22064564505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
+      <c r="B5">
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5">
-        <v>11.3406898</v>
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
       </c>
       <c r="E5">
-        <v>-13.9440724</v>
+        <v>10.115437399999999</v>
       </c>
       <c r="F5">
-        <v>249308.84842127701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="G5">
+        <v>339292.56225779199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>40</v>
+      <c r="B6">
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6">
-        <v>11.3406898</v>
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
       </c>
       <c r="E6">
-        <v>-13.9440724</v>
+        <v>10.3143203</v>
       </c>
       <c r="F6">
-        <v>167261.57594930701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-10.890097000000001</v>
+      </c>
+      <c r="G6">
+        <v>233273.52697417501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
+      <c r="B7">
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7">
-        <v>9.5170601999999995</v>
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
       </c>
       <c r="E7">
-        <v>-13.699843400000001</v>
+        <v>10.661926899999999</v>
       </c>
       <c r="F7">
-        <v>174841.70012595499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-12.1139542</v>
+      </c>
+      <c r="G7">
+        <v>172056.138109983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>34</v>
+      <c r="B8">
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8">
-        <v>9.5170601999999995</v>
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
       </c>
       <c r="E8">
-        <v>-13.699843400000001</v>
+        <v>10.3143203</v>
       </c>
       <c r="F8">
-        <v>80437.5571760577</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-10.890097000000001</v>
+      </c>
+      <c r="G8">
+        <v>252934.89980399501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
+      <c r="B9">
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9">
         <v>9.5170601999999995</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-13.699843400000001</v>
       </c>
-      <c r="F9">
-        <v>184495.79993451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>174841.70012595499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
+      <c r="B10">
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10">
-        <v>9.5170601999999995</v>
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
       </c>
       <c r="E10">
-        <v>-13.699843400000001</v>
+        <v>10.115437399999999</v>
       </c>
       <c r="F10">
-        <v>857613.55159933097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="G10">
+        <v>424913.486526024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
+      <c r="B11">
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11">
-        <v>9.5170601999999995</v>
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>-13.699843400000001</v>
+        <v>10.3143203</v>
       </c>
       <c r="F11">
-        <v>840225.27282994904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-10.890097000000001</v>
+      </c>
+      <c r="G11">
+        <v>360794.20856392803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
+      <c r="B12">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12">
-        <v>10.3143203</v>
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
       </c>
       <c r="E12">
-        <v>-10.890097000000001</v>
+        <v>10.115437399999999</v>
       </c>
       <c r="F12">
-        <v>233273.52697417501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="G12">
+        <v>312578.20509106602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
+      <c r="B13">
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13">
-        <v>10.3143203</v>
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
       </c>
       <c r="E13">
-        <v>-10.890097000000001</v>
+        <v>11.3406898</v>
       </c>
       <c r="F13">
-        <v>252934.89980399501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-13.9440724</v>
+      </c>
+      <c r="G13">
+        <v>124496.177459543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
+      <c r="B14">
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>10.3143203</v>
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
       </c>
       <c r="E14">
-        <v>-10.890097000000001</v>
+        <v>11.3406898</v>
       </c>
       <c r="F14">
-        <v>360794.20856392803</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-13.9440724</v>
+      </c>
+      <c r="G14">
+        <v>249308.84842127701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
+      <c r="B15">
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15">
-        <v>10.3143203</v>
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
       </c>
       <c r="E15">
-        <v>-10.890097000000001</v>
+        <v>7.7589949000000002</v>
       </c>
       <c r="F15">
-        <v>364802.77692777099</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="G15">
+        <v>374028.24811912101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
+      <c r="B16">
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>10.6248355</v>
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
       </c>
       <c r="E16">
-        <v>-9.3175165999999994</v>
+        <v>9.5170601999999995</v>
       </c>
       <c r="F16">
-        <v>607309.11103539995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-13.699843400000001</v>
+      </c>
+      <c r="G16">
+        <v>80437.5571760577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17">
+      <c r="E17">
         <v>10.6248355</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-9.3175165999999994</v>
       </c>
-      <c r="F17">
-        <v>267285.05055068899</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>607309.11103539995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
+      <c r="B18">
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18">
         <v>10.6248355</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-9.3175165999999994</v>
       </c>
-      <c r="F18">
-        <v>345668.543937693</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>267285.05055068899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
+      <c r="B19">
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19">
-        <v>10.6248355</v>
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>-9.3175165999999994</v>
+        <v>10.115437399999999</v>
       </c>
       <c r="F19">
-        <v>432655.001428955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="G19">
+        <v>565307.69851615594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
+      <c r="B20">
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20">
-        <v>10.6248355</v>
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
       </c>
       <c r="E20">
-        <v>-9.3175165999999994</v>
+        <v>10.3143203</v>
       </c>
       <c r="F20">
-        <v>872601.929309053</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-10.890097000000001</v>
+      </c>
+      <c r="G20">
+        <v>364802.77692777099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>17</v>
+      <c r="B21">
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21">
-        <v>10.115437399999999</v>
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
       </c>
       <c r="E21">
-        <v>-13.191688299999999</v>
+        <v>11.761483500000001</v>
       </c>
       <c r="F21">
-        <v>339292.56225779199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-12.011888900000001</v>
+      </c>
+      <c r="G21">
+        <v>128485.881972262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>17</v>
+      <c r="B22">
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22">
-        <v>10.115437399999999</v>
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
       </c>
       <c r="E22">
-        <v>-13.191688299999999</v>
+        <v>11.3406898</v>
       </c>
       <c r="F22">
-        <v>424913.486526024</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-13.9440724</v>
+      </c>
+      <c r="G22">
+        <v>167261.57594930701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>17</v>
+      <c r="B23">
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23">
-        <v>10.115437399999999</v>
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
       </c>
       <c r="E23">
-        <v>-13.191688299999999</v>
+        <v>10.6248355</v>
       </c>
       <c r="F23">
-        <v>312578.20509106602</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-9.3175165999999994</v>
+      </c>
+      <c r="G23">
+        <v>345668.543937693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>17</v>
+      <c r="B24">
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24">
-        <v>10.115437399999999</v>
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
       </c>
       <c r="E24">
-        <v>-13.191688299999999</v>
+        <v>11.761483500000001</v>
       </c>
       <c r="F24">
-        <v>565307.69851615594</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-12.011888900000001</v>
+      </c>
+      <c r="G24">
+        <v>409238.674233736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>17</v>
+      <c r="B25">
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25">
-        <v>10.115437399999999</v>
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
       </c>
       <c r="E25">
-        <v>-13.191688299999999</v>
+        <v>11.761483500000001</v>
       </c>
       <c r="F25">
-        <v>366150.49429140601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-12.011888900000001</v>
+      </c>
+      <c r="G25">
+        <v>209773.360440627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>11</v>
+      <c r="B26">
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26">
-        <v>11.761483500000001</v>
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
       </c>
       <c r="E26">
-        <v>-12.011888900000001</v>
+        <v>7.7589949000000002</v>
       </c>
       <c r="F26">
-        <v>128485.881972262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="G26">
+        <v>220951.24022330801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>11</v>
+      <c r="B27">
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>11.761483500000001</v>
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
       </c>
       <c r="E27">
-        <v>-12.011888900000001</v>
+        <v>7.7589949000000002</v>
       </c>
       <c r="F27">
-        <v>409238.674233736</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="G27">
+        <v>358586.08999069501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>11</v>
+      <c r="B28">
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28">
         <v>11.761483500000001</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-12.011888900000001</v>
       </c>
-      <c r="F28">
-        <v>209773.360440627</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>370355.03710859199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>11</v>
+      <c r="B29">
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29">
-        <v>11.761483500000001</v>
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>-12.011888900000001</v>
+        <v>10.661926899999999</v>
       </c>
       <c r="F29">
-        <v>370355.03710859199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-12.1139542</v>
+      </c>
+      <c r="G29">
+        <v>410579.05565526697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>11</v>
+      <c r="B30">
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30">
-        <v>11.761483500000001</v>
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
       </c>
       <c r="E30">
-        <v>-12.011888900000001</v>
+        <v>10.6248355</v>
       </c>
       <c r="F30">
-        <v>160058.728795139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-9.3175165999999994</v>
+      </c>
+      <c r="G30">
+        <v>432655.001428955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
+      <c r="B31">
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31">
-        <v>10.661926899999999</v>
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
       </c>
       <c r="E31">
-        <v>-12.1139542</v>
+        <v>9.5170601999999995</v>
       </c>
       <c r="F31">
-        <v>172056.138109983</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-13.699843400000001</v>
+      </c>
+      <c r="G31">
+        <v>184495.79993451</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
+      <c r="B32">
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32">
-        <v>10.661926899999999</v>
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
       </c>
       <c r="E32">
-        <v>-12.1139542</v>
+        <v>9.5170601999999995</v>
       </c>
       <c r="F32">
-        <v>410579.05565526697</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-13.699843400000001</v>
+      </c>
+      <c r="G32">
+        <v>857613.55159933097</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
+      <c r="B33">
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33">
-        <v>10.661926899999999</v>
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>-12.1139542</v>
+        <v>7.7589949000000002</v>
       </c>
       <c r="F33">
-        <v>357955.19896977098</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="G33">
+        <v>510521.834893508</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>0</v>
+      <c r="B34">
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34">
-        <v>7.7589949000000002</v>
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
       </c>
       <c r="E34">
-        <v>-8.8160001000000001</v>
+        <v>10.661926899999999</v>
       </c>
       <c r="F34">
-        <v>419960.677614254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-12.1139542</v>
+      </c>
+      <c r="G34">
+        <v>357955.19896977098</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>0</v>
+      <c r="B35">
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35">
-        <v>7.7589949000000002</v>
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
       </c>
       <c r="E35">
-        <v>-8.8160001000000001</v>
+        <v>9.5170601999999995</v>
       </c>
       <c r="F35">
-        <v>374028.24811912101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-13.699843400000001</v>
+      </c>
+      <c r="G35">
+        <v>840225.27282994904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>0</v>
+      <c r="B36">
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36">
-        <v>7.7589949000000002</v>
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
       </c>
       <c r="E36">
-        <v>-8.8160001000000001</v>
+        <v>10.6248355</v>
       </c>
       <c r="F36">
-        <v>220951.24022330801</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-9.3175165999999994</v>
+      </c>
+      <c r="G36">
+        <v>872601.929309053</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>0</v>
+      <c r="B37">
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37">
-        <v>7.7589949000000002</v>
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
       </c>
       <c r="E37">
-        <v>-8.8160001000000001</v>
+        <v>10.115437399999999</v>
       </c>
       <c r="F37">
-        <v>358586.08999069501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="G37">
+        <v>366150.49429140601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>0</v>
+      <c r="B38">
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>7.7589949000000002</v>
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
       </c>
       <c r="E38">
-        <v>-8.8160001000000001</v>
+        <v>11.761483500000001</v>
       </c>
       <c r="F38">
-        <v>510521.83489350701</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-12.011888900000001</v>
+      </c>
+      <c r="G38">
+        <v>160058.728795139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>0</v>
+      <c r="B39">
+        <v>37</v>
       </c>
       <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
         <v>53</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>7.7589949000000002</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>-8.8160001000000001</v>
       </c>
-      <c r="F39">
+      <c r="G39">
+        <v>147197.77429550901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40">
+        <v>11.3406898</v>
+      </c>
+      <c r="F40">
+        <v>-13.9440724</v>
+      </c>
+      <c r="G40">
+        <v>273614.92059450998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>11.3406898</v>
+      </c>
+      <c r="F41">
+        <v>-13.9440724</v>
+      </c>
+      <c r="G41">
+        <v>579229.22064564505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42">
+        <v>11.3406898</v>
+      </c>
+      <c r="F42">
+        <v>-13.9440724</v>
+      </c>
+      <c r="G42">
+        <v>124496.177459543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43">
+        <v>11.3406898</v>
+      </c>
+      <c r="F43">
+        <v>-13.9440724</v>
+      </c>
+      <c r="G43">
+        <v>249308.84842127701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44">
+        <v>11.3406898</v>
+      </c>
+      <c r="F44">
+        <v>-13.9440724</v>
+      </c>
+      <c r="G44">
+        <v>167261.57594930701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45">
+        <v>9.5170601999999995</v>
+      </c>
+      <c r="F45">
+        <v>-13.699843400000001</v>
+      </c>
+      <c r="G45">
+        <v>174841.70012595499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46">
+        <v>9.5170601999999995</v>
+      </c>
+      <c r="F46">
+        <v>-13.699843400000001</v>
+      </c>
+      <c r="G46">
+        <v>80437.5571760577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47">
+        <v>9.5170601999999995</v>
+      </c>
+      <c r="F47">
+        <v>-13.699843400000001</v>
+      </c>
+      <c r="G47">
+        <v>184495.79993451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48">
+        <v>9.5170601999999995</v>
+      </c>
+      <c r="F48">
+        <v>-13.699843400000001</v>
+      </c>
+      <c r="G48">
+        <v>857613.55159933097</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49">
+        <v>9.5170601999999995</v>
+      </c>
+      <c r="F49">
+        <v>-13.699843400000001</v>
+      </c>
+      <c r="G49">
+        <v>840225.27282994904</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50">
+        <v>10.3143203</v>
+      </c>
+      <c r="F50">
+        <v>-10.890097000000001</v>
+      </c>
+      <c r="G50">
+        <v>233273.52697417501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51">
+        <v>10.3143203</v>
+      </c>
+      <c r="F51">
+        <v>-10.890097000000001</v>
+      </c>
+      <c r="G51">
+        <v>252934.89980399501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52">
+        <v>10.3143203</v>
+      </c>
+      <c r="F52">
+        <v>-10.890097000000001</v>
+      </c>
+      <c r="G52">
+        <v>360794.20856392803</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53">
+        <v>10.3143203</v>
+      </c>
+      <c r="F53">
+        <v>-10.890097000000001</v>
+      </c>
+      <c r="G53">
+        <v>364802.77692777099</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54">
+        <v>10.6248355</v>
+      </c>
+      <c r="F54">
+        <v>-9.3175165999999994</v>
+      </c>
+      <c r="G54">
+        <v>607309.11103539995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55">
+        <v>10.6248355</v>
+      </c>
+      <c r="F55">
+        <v>-9.3175165999999994</v>
+      </c>
+      <c r="G55">
+        <v>267285.05055068899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56">
+        <v>10.6248355</v>
+      </c>
+      <c r="F56">
+        <v>-9.3175165999999994</v>
+      </c>
+      <c r="G56">
+        <v>345668.543937693</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57">
+        <v>10.6248355</v>
+      </c>
+      <c r="F57">
+        <v>-9.3175165999999994</v>
+      </c>
+      <c r="G57">
+        <v>432655.001428955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58">
+        <v>10.6248355</v>
+      </c>
+      <c r="F58">
+        <v>-9.3175165999999994</v>
+      </c>
+      <c r="G58">
+        <v>872601.929309053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59">
+        <v>10.115437399999999</v>
+      </c>
+      <c r="F59">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="G59">
+        <v>339292.56225779199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60">
+        <v>10.115437399999999</v>
+      </c>
+      <c r="F60">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="G60">
+        <v>424913.486526024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61">
+        <v>10.115437399999999</v>
+      </c>
+      <c r="F61">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="G61">
+        <v>312578.20509106602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>10.115437399999999</v>
+      </c>
+      <c r="F62">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="G62">
+        <v>565307.69851615594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63">
+        <v>10.115437399999999</v>
+      </c>
+      <c r="F63">
+        <v>-13.191688299999999</v>
+      </c>
+      <c r="G63">
+        <v>366150.49429140601</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64">
+        <v>11.761483500000001</v>
+      </c>
+      <c r="F64">
+        <v>-12.011888900000001</v>
+      </c>
+      <c r="G64">
+        <v>128485.881972262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65">
+        <v>11.761483500000001</v>
+      </c>
+      <c r="F65">
+        <v>-12.011888900000001</v>
+      </c>
+      <c r="G65">
+        <v>409238.674233736</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66">
+        <v>11.761483500000001</v>
+      </c>
+      <c r="F66">
+        <v>-12.011888900000001</v>
+      </c>
+      <c r="G66">
+        <v>209773.360440627</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67">
+        <v>11.761483500000001</v>
+      </c>
+      <c r="F67">
+        <v>-12.011888900000001</v>
+      </c>
+      <c r="G67">
+        <v>370355.03710859199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68">
+        <v>11.761483500000001</v>
+      </c>
+      <c r="F68">
+        <v>-12.011888900000001</v>
+      </c>
+      <c r="G68">
+        <v>160058.728795139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69">
+        <v>10.661926899999999</v>
+      </c>
+      <c r="F69">
+        <v>-12.1139542</v>
+      </c>
+      <c r="G69">
+        <v>172056.138109983</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70">
+        <v>10.661926899999999</v>
+      </c>
+      <c r="F70">
+        <v>-12.1139542</v>
+      </c>
+      <c r="G70">
+        <v>410579.05565526697</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71">
+        <v>10.661926899999999</v>
+      </c>
+      <c r="F71">
+        <v>-12.1139542</v>
+      </c>
+      <c r="G71">
+        <v>357955.19896977098</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72">
+        <v>7.7589949000000002</v>
+      </c>
+      <c r="F72">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="G72">
+        <v>419960.677614254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73">
+        <v>7.7589949000000002</v>
+      </c>
+      <c r="F73">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="G73">
+        <v>374028.24811912101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74">
+        <v>7.7589949000000002</v>
+      </c>
+      <c r="F74">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="G74">
+        <v>220951.24022330801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75">
+        <v>7.7589949000000002</v>
+      </c>
+      <c r="F75">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="G75">
+        <v>358586.08999069501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>7.7589949000000002</v>
+      </c>
+      <c r="F76">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="G76">
+        <v>510521.834893508</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77">
+        <v>7.7589949000000002</v>
+      </c>
+      <c r="F77">
+        <v>-8.8160001000000001</v>
+      </c>
+      <c r="G77">
         <v>147197.77429550901</v>
       </c>
     </row>

--- a/health-analytics-data.xlsx
+++ b/health-analytics-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshiggins\Documents\health-analytics-prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F4735D-D8F2-4533-906A-4D6B9076046B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5397D15C-3444-42EA-BF40-8424C497E671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="37245" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="1665" windowWidth="27750" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="119">
   <si>
     <t>N'Zerekore</t>
   </si>
@@ -725,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E81A90-441C-4B80-8CFB-B0E65A4BD4E2}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,91 +736,53 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f>A2+1</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A10" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -12103,7 +12065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51378AB9-4B68-4E90-B4F5-9BE7AB5E618A}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
